--- a/translated_words.xlsx
+++ b/translated_words.xlsx
@@ -1,37 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -50,21 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -79,44 +135,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -143,15 +199,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -178,7 +233,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -190,153 +244,183 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/translated_words.xlsx
+++ b/translated_words.xlsx
@@ -413,14 +413,99 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Iegarena</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Tendrils</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>lodveida kopas</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>plūdmaiņu straumes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Tuvā infrasarkanā kamera</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>tumšā matērija</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>liela mēroga struktūra</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Gadījumos</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>viela</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>deflācija</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Oļi</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>hematīts</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/translated_words.xlsx
+++ b/translated_words.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,82 +424,154 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Iegarena</t>
+          <t>English Word</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Latvian Translation</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Tendrils</t>
+          <t>elongated</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Iegarena</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>lodveida kopas</t>
+          <t>tendrils</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Tendrils</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>plūdmaiņu straumes</t>
+          <t>globular clusters</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>lodveida kopas</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tuvā infrasarkanā kamera</t>
+          <t>tidal streams</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>plūdmaiņu straumes</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>tumšā matērija</t>
+          <t>near-infrared camera</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tuvā infrasarkanā kamera</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>liela mēroga struktūra</t>
+          <t>dark matter</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>tumšā matērija</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Gadījumos</t>
+          <t>large-scale structure</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>liela mēroga struktūra</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>viela</t>
+          <t>instances</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gadījumos</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>deflācija</t>
+          <t>substance</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>viela</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Oļi</t>
+          <t>deflating</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>deflācija</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
+        <is>
+          <t>pebbles</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Oļi</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>hematite</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>hematīts</t>
         </is>

--- a/translated_words.xlsx
+++ b/translated_words.xlsx
@@ -1,34 +1,121 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\projekts\PythonProject2024\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F00E786-7EBF-4427-89B1-9DC62E8F6298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+  <si>
+    <t>English Word</t>
+  </si>
+  <si>
+    <t>Latvian Translation</t>
+  </si>
+  <si>
+    <t>elongated</t>
+  </si>
+  <si>
+    <t>Iegarena</t>
+  </si>
+  <si>
+    <t>tendrils</t>
+  </si>
+  <si>
+    <t>Tendrils</t>
+  </si>
+  <si>
+    <t>globular clusters</t>
+  </si>
+  <si>
+    <t>lodveida kopas</t>
+  </si>
+  <si>
+    <t>tidal streams</t>
+  </si>
+  <si>
+    <t>plūdmaiņu straumes</t>
+  </si>
+  <si>
+    <t>near-infrared camera</t>
+  </si>
+  <si>
+    <t>Tuvā infrasarkanā kamera</t>
+  </si>
+  <si>
+    <t>dark matter</t>
+  </si>
+  <si>
+    <t>tumšā matērija</t>
+  </si>
+  <si>
+    <t>large-scale structure</t>
+  </si>
+  <si>
+    <t>liela mēroga struktūra</t>
+  </si>
+  <si>
+    <t>instances</t>
+  </si>
+  <si>
+    <t>Gadījumos</t>
+  </si>
+  <si>
+    <t>substance</t>
+  </si>
+  <si>
+    <t>viela</t>
+  </si>
+  <si>
+    <t>deflating</t>
+  </si>
+  <si>
+    <t>deflācija</t>
+  </si>
+  <si>
+    <t>pebbles</t>
+  </si>
+  <si>
+    <t>Oļi</t>
+  </si>
+  <si>
+    <t>hematite</t>
+  </si>
+  <si>
+    <t>hematīts</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +134,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,173 +436,122 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="49.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>English Word</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Latvian Translation</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>elongated</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Iegarena</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>tendrils</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Tendrils</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>globular clusters</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>lodveida kopas</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>tidal streams</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>plūdmaiņu straumes</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>near-infrared camera</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Tuvā infrasarkanā kamera</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>dark matter</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>tumšā matērija</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>large-scale structure</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>liela mēroga struktūra</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>instances</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Gadījumos</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>substance</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>viela</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>deflating</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>deflācija</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>pebbles</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Oļi</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>hematite</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>hematīts</t>
-        </is>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/translated_words.xlsx
+++ b/translated_words.xlsx
@@ -1,121 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\projekts\PythonProject2024\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F00E786-7EBF-4427-89B1-9DC62E8F6298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
-  <si>
-    <t>English Word</t>
-  </si>
-  <si>
-    <t>Latvian Translation</t>
-  </si>
-  <si>
-    <t>elongated</t>
-  </si>
-  <si>
-    <t>Iegarena</t>
-  </si>
-  <si>
-    <t>tendrils</t>
-  </si>
-  <si>
-    <t>Tendrils</t>
-  </si>
-  <si>
-    <t>globular clusters</t>
-  </si>
-  <si>
-    <t>lodveida kopas</t>
-  </si>
-  <si>
-    <t>tidal streams</t>
-  </si>
-  <si>
-    <t>plūdmaiņu straumes</t>
-  </si>
-  <si>
-    <t>near-infrared camera</t>
-  </si>
-  <si>
-    <t>Tuvā infrasarkanā kamera</t>
-  </si>
-  <si>
-    <t>dark matter</t>
-  </si>
-  <si>
-    <t>tumšā matērija</t>
-  </si>
-  <si>
-    <t>large-scale structure</t>
-  </si>
-  <si>
-    <t>liela mēroga struktūra</t>
-  </si>
-  <si>
-    <t>instances</t>
-  </si>
-  <si>
-    <t>Gadījumos</t>
-  </si>
-  <si>
-    <t>substance</t>
-  </si>
-  <si>
-    <t>viela</t>
-  </si>
-  <si>
-    <t>deflating</t>
-  </si>
-  <si>
-    <t>deflācija</t>
-  </si>
-  <si>
-    <t>pebbles</t>
-  </si>
-  <si>
-    <t>Oļi</t>
-  </si>
-  <si>
-    <t>hematite</t>
-  </si>
-  <si>
-    <t>hematīts</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -134,21 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -436,122 +408,238 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="49.7109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>English Word</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Latvian Translation</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>French Translation</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>elongated</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Iegarena</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>allongé</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>tendrils</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Tendrils</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Vrilles</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>globular clusters</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>lodveida kopas</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>amas globulaires</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>tidal streams</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>plūdmaiņu straumes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Courants de marée</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>near-infrared camera</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tuvā infrasarkanā kamera</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Caméra proche infrarouge</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>dark matter</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>tumšā matērija</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>matière noire</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>large-scale structure</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>liela mēroga struktūra</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Structure à grande échelle</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>instances</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gadījumos</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Cas</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>substance</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>viela</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>substance</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>deflating</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>deflācija</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Dégonflage</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>pebbles</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Oļi</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Cailloux</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>hematite</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>hematīts</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>hématite</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/translated_words.xlsx
+++ b/translated_words.xlsx
@@ -420,6 +420,11 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -451,7 +456,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>allongé</t>
+          <t xml:space="preserve"> ...</t>
         </is>
       </c>
     </row>
@@ -536,7 +541,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>matière noire</t>
+          <t>Caméra proche infrarouge ...</t>
         </is>
       </c>
     </row>

--- a/translated_words.xlsx
+++ b/translated_words.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,9 +421,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="50" customWidth="1" min="1" max="1"/>
-    <col width="50" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="30" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -442,6 +443,11 @@
           <t>French Translation</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Russian Translation</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -456,7 +462,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ...</t>
+          <t>allongé</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>удлинённый</t>
         </is>
       </c>
     </row>
@@ -476,6 +487,11 @@
           <t>Vrilles</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Усиками</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -493,6 +509,11 @@
           <t>amas globulaires</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>шаровые скопления</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -510,6 +531,11 @@
           <t>Courants de marée</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Приливно-отливные течения</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -527,6 +553,11 @@
           <t>Caméra proche infrarouge</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Камера ближнего инфракрасного диапазона</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -541,7 +572,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Caméra proche infrarouge ...</t>
+          <t>matière noire</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>темная материя</t>
         </is>
       </c>
     </row>
@@ -561,6 +597,11 @@
           <t>Structure à grande échelle</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Масштабное сооружение</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -578,6 +619,11 @@
           <t>Cas</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Экземпляров</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -595,6 +641,11 @@
           <t>substance</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>вещество</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -612,6 +663,11 @@
           <t>Dégonflage</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Сдувание</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -629,6 +685,11 @@
           <t>Cailloux</t>
         </is>
       </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>галька</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -644,6 +705,11 @@
       <c r="C13" t="inlineStr">
         <is>
           <t>hématite</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Гематит</t>
         </is>
       </c>
     </row>

--- a/translated_words.xlsx
+++ b/translated_words.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,13 +421,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="30" customWidth="1" min="1" max="1"/>
-    <col width="30" customWidth="1" min="2" max="2"/>
-    <col width="30" customWidth="1" min="3" max="3"/>
-    <col width="30" customWidth="1" min="4" max="4"/>
+    <col width="40" customWidth="1" min="1" max="1"/>
+    <col width="40" customWidth="1" min="2" max="2"/>
+    <col width="40" customWidth="1" min="3" max="3"/>
+    <col width="40" customWidth="1" min="4" max="4"/>
+    <col width="40" customWidth="1" min="5" max="5"/>
+    <col width="40" customWidth="1" min="6" max="6"/>
+    <col width="40" customWidth="1" min="7" max="7"/>
+    <col width="40" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
           <t>English Word</t>
@@ -446,6 +450,26 @@
       <c r="D1" t="inlineStr">
         <is>
           <t>Russian Translation</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>German Translation</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Portuguese Translation</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Spanish Translation</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Italian Translation</t>
         </is>
       </c>
     </row>
@@ -470,6 +494,22 @@
           <t>удлинённый</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>verlängert</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>alargado</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ...</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -492,6 +532,26 @@
           <t>Усиками</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Ranken</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Gavinhas</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Zarcillos</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>viticci</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -514,6 +574,26 @@
           <t>шаровые скопления</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Kugelsternhaufen</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>aglomerados globulares</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Cúmulos globulares</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>viticci ...</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -536,6 +616,26 @@
           <t>Приливно-отливные течения</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Gezeitenströme</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>correntes de maré</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Corrientes de marea</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>correnti di marea</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -558,6 +658,26 @@
           <t>Камера ближнего инфракрасного диапазона</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Nahinfrarot-Kamera</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>câmera infravermelha próxima</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Corrientes de marea ...</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>telecamera ad infrarossi vicini</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -580,6 +700,26 @@
           <t>темная материя</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Dunkle Materie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>matéria escura</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>cámara de infrarrojo cercano</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>materia oscura</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -602,6 +742,26 @@
           <t>Масштабное сооружение</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Großflächige Struktur</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>estrutura de grande porte</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Estructura a gran escala</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Struttura su larga scala</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -624,6 +784,26 @@
           <t>Экземпляров</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Instanzen</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Instâncias</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Instancias</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Istanze</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -646,6 +826,26 @@
           <t>вещество</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Substanz</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>substância</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>sustancia</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>sostanza</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -668,6 +868,26 @@
           <t>Сдувание</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>entleerend</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Deflação</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Desinflando</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Sgonfiando</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -690,6 +910,26 @@
           <t>галька</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Kieselsteine</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Seixos</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>piedrecillas</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Ciottoli</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -710,6 +950,26 @@
       <c r="D13" t="inlineStr">
         <is>
           <t>Гематит</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Hämatit</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>hematita</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>hematita</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Ciottoli ...</t>
         </is>
       </c>
     </row>

--- a/translated_words.xlsx
+++ b/translated_words.xlsx
@@ -499,7 +499,11 @@
           <t>verlängert</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>alongado</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>alargado</t>
@@ -507,7 +511,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ...</t>
+          <t>Allungata</t>
         </is>
       </c>
     </row>
@@ -566,7 +570,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>amas globulaires</t>
+          <t>Vrilles ...</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -591,7 +595,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>viticci ...</t>
+          <t>ammassi globulari</t>
         </is>
       </c>
     </row>
@@ -633,7 +637,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>correnti di marea</t>
+          <t>ammassi globulari ...</t>
         </is>
       </c>
     </row>
@@ -670,7 +674,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Corrientes de marea ...</t>
+          <t>cámara de infrarrojo cercano</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -712,7 +716,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>cámara de infrarrojo cercano</t>
+          <t>materia oscura</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">

--- a/translated_words.xlsx
+++ b/translated_words.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,420 +560,84 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>globular clusters</t>
+          <t>dark matter</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>lodveida kopas</t>
+          <t>tumšā matērija</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Vrilles ...</t>
+          <t>matière noire</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>шаровые скопления</t>
+          <t>темная материя</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Kugelsternhaufen</t>
+          <t>Dunkle Materie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>aglomerados globulares</t>
+          <t>matéria escura</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Cúmulos globulares</t>
+          <t>materia oscura</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>ammassi globulari</t>
+          <t>viticci ...</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>tidal streams</t>
+          <t>pebbles</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>plūdmaiņu straumes</t>
+          <t>Oļi</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Courants de marée</t>
+          <t>Cailloux</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Приливно-отливные течения</t>
+          <t>галька</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Gezeitenströme</t>
+          <t>Kieselsteine</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>correntes de maré</t>
+          <t>Seixos</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Corrientes de marea</t>
+          <t>piedrecillas</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>ammassi globulari ...</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>near-infrared camera</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Tuvā infrasarkanā kamera</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Caméra proche infrarouge</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Камера ближнего инфракрасного диапазона</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Nahinfrarot-Kamera</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>câmera infravermelha próxima</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>cámara de infrarrojo cercano</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>telecamera ad infrarossi vicini</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>dark matter</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>tumšā matērija</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>matière noire</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>темная материя</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Dunkle Materie</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>matéria escura</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>materia oscura</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>materia oscura</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>large-scale structure</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>liela mēroga struktūra</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Structure à grande échelle</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Масштабное сооружение</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Großflächige Struktur</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>estrutura de grande porte</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Estructura a gran escala</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Struttura su larga scala</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>instances</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Gadījumos</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Cas</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Экземпляров</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Instanzen</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Instâncias</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Instancias</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Istanze</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>substance</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>viela</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>substance</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>вещество</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Substanz</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>substância</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>sustancia</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>sostanza</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>deflating</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>deflācija</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Dégonflage</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Сдувание</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>entleerend</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Deflação</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Desinflando</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Sgonfiando</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>pebbles</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Oļi</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Cailloux</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>галька</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Kieselsteine</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Seixos</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>piedrecillas</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
           <t>Ciottoli</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>hematite</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>hematīts</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>hématite</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Гематит</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Hämatit</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>hematita</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>hematita</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Ciottoli ...</t>
         </is>
       </c>
     </row>

--- a/translated_words.xlsx
+++ b/translated_words.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,11 +467,6 @@
           <t>Spanish Translation</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Italian Translation</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -489,11 +484,7 @@
           <t>allongé</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>удлинённый</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
           <t>verlängert</t>
@@ -506,12 +497,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>alargado</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Allungata</t>
+          <t xml:space="preserve"> ...</t>
         </is>
       </c>
     </row>
@@ -528,7 +514,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Vrilles</t>
+          <t>allongé ...</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -549,11 +535,6 @@
       <c r="G3" t="inlineStr">
         <is>
           <t>Zarcillos</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>viticci</t>
         </is>
       </c>
     </row>
@@ -593,11 +574,6 @@
           <t>materia oscura</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>viticci ...</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -633,11 +609,6 @@
       <c r="G5" t="inlineStr">
         <is>
           <t>piedrecillas</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Ciottoli</t>
         </is>
       </c>
     </row>
